--- a/config_aomi_11.2/game_module_config.xlsx
+++ b/config_aomi_11.2/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="1046">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3981,6 +3981,18 @@
   </si>
   <si>
     <t>sys_act_base_style/sys_act_base_weekly_039</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_hghd_001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归活动皮肤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4660,13 +4672,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I354"/>
+  <dimension ref="A1:I355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C341" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D334" sqref="D334"/>
+      <selection pane="bottomRight" activeCell="D361" sqref="D361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13663,24 +13675,48 @@
         <v>353</v>
       </c>
       <c r="B354" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C354" s="64" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D354" s="64"/>
+      <c r="E354" s="5">
+        <v>1</v>
+      </c>
+      <c r="F354" s="5">
+        <v>1</v>
+      </c>
+      <c r="G354" s="5">
+        <v>1</v>
+      </c>
+      <c r="I354" s="63" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" s="5">
+        <v>354</v>
+      </c>
+      <c r="B355" s="9" t="s">
         <v>1038</v>
       </c>
-      <c r="C354" s="64" t="s">
+      <c r="C355" s="64" t="s">
         <v>1039</v>
       </c>
-      <c r="D354" s="64" t="s">
+      <c r="D355" s="64" t="s">
         <v>1040</v>
       </c>
-      <c r="E354" s="5">
-        <v>1</v>
-      </c>
-      <c r="F354" s="5">
-        <v>1</v>
-      </c>
-      <c r="G354" s="5">
-        <v>1</v>
-      </c>
-      <c r="I354" s="63" t="s">
+      <c r="E355" s="5">
+        <v>1</v>
+      </c>
+      <c r="F355" s="5">
+        <v>1</v>
+      </c>
+      <c r="G355" s="5">
+        <v>1</v>
+      </c>
+      <c r="I355" s="63" t="s">
         <v>1041</v>
       </c>
     </row>
